--- a/artfynd/A 37325-2022 artfynd.xlsx
+++ b/artfynd/A 37325-2022 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130581355</v>
       </c>
       <c r="B2" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>130581350</v>
       </c>
       <c r="B3" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -898,7 +898,7 @@
         <v>130581351</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>130581349</v>
       </c>
       <c r="B5" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>130581356</v>
       </c>
       <c r="B6" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1224,7 +1224,7 @@
         <v>130581354</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>130581352</v>
       </c>
       <c r="B8" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
